--- a/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Arica.xlsx
+++ b/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Arica.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="Ra95b98d16e954982"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="Rdbe587fa2936487a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -234,6 +234,1926 @@
     </x:row>
     <x:row r="4">
       <x:c s="5" t="d">
+        <x:v>2013-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20979</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1880184.2470565</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6273072.921875</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11230.345842</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c s="5" t="d">
+        <x:v>2013-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21077</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1843889.6318261</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6167187.015625</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11029.215146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c s="5" t="d">
+        <x:v>2013-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21244</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1836646.5747505</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6445161.375</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11814.264698</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c s="5" t="d">
+        <x:v>2013-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21424</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1769513.5</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6160981.8346456</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11257.208364</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="5" t="d">
+        <x:v>2013-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21529</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1793923.0912722</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6318335.0620155</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11801.323709</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="5" t="d">
+        <x:v>2013-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21681</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1860845.544163</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6632067.8828125</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12977.588938</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="5" t="d">
+        <x:v>2013-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21868</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1924492.0242363</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6766649.0076923</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11762.896327</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="5" t="d">
+        <x:v>2013-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22023</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1941449.8250011</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6761523.6692307</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12385.142388</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="5" t="d">
+        <x:v>2013-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22127</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2032446.4806797</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6713146.9538461</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12267.396278</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="5" t="d">
+        <x:v>2013-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22276</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2030081.2867211</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6262217.7538461</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13193.861104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="5" t="d">
+        <x:v>2013-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22409</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2049797.8088714</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5902790.109375</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13380.544497</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="5" t="d">
+        <x:v>2013-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22567</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2063976.3278238</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5640850.744186</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13924.832251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="5" t="d">
+        <x:v>2014-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22696</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2026050.5172277</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5930327.2283464</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14022.063313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="5" t="d">
+        <x:v>2014-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22784</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1971956.8844803</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6477199.6220472</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13873.830403</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="5" t="d">
+        <x:v>2014-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22932</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1916714.8666928</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6897353.7401574</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12833.432787</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="5" t="d">
+        <x:v>2014-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22990</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1903778.3404958</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7658470.1349206</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13924.078006</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="5" t="d">
+        <x:v>2014-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23507</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1917425.2712383</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7545995.3492063</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15568.100426</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="5" t="d">
+        <x:v>2014-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23683</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1950109.2718405</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7599786.3543307</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14946.710646999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="5" t="d">
+        <x:v>2014-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23886</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1945987.7903374</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7547079.1259842</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14701.638165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="5" t="d">
+        <x:v>2014-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24060</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1929957.3258936</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7628795.4645669</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14946.755611</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="5" t="d">
+        <x:v>2014-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24281</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1998216.0597586</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8481634.9609375</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14866.586704</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="5" t="d">
+        <x:v>2014-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24457</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2061397.7199574</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9482653.625</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15439.461065</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="5" t="d">
+        <x:v>2014-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24673</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2104203.7577108</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9269174.1171875</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15827.565456</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="5" t="d">
+        <x:v>2014-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24889</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2162478.0476917</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9184903.0629921</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17037.108724</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="5" t="d">
+        <x:v>2015-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25081</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2105202.3709581</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9520564.0155038</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17318.274688</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="5" t="d">
+        <x:v>2015-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25160</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2043797.5633942</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9466619.7984496</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17072.623023</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="5" t="d">
+        <x:v>2015-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25378</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1984282.8873433</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10266817.392307</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16551.680865</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="5" t="d">
+        <x:v>2015-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25623</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1924262.7272762</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11459861.938461</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16815.769421</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c s="5" t="d">
+        <x:v>2015-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25781</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1956807.4796555</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10778834.776923</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17773.575657</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c s="5" t="d">
+        <x:v>2015-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25995</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2011477.9402962</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9903916.5833333</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18422.398913</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c s="5" t="d">
+        <x:v>2015-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26156</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2061856.9070576</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10489581.030534</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18348.935433</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c s="5" t="d">
+        <x:v>2015-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26372</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2084179.1652131</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11295866.15909</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18038.38148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c s="5" t="d">
+        <x:v>2015-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26589</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2148470.8695701</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11761077.740458</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19548.748298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c s="5" t="d">
+        <x:v>2015-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26761</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2180448.3559284</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12179896.068181</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19785.585285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c s="5" t="d">
+        <x:v>2015-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26931</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2217415.0068694</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12290291.613636</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19354.876457</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c s="5" t="d">
+        <x:v>2015-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27012</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2220965.4332889</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12249584.300751</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21210.382007</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c s="5" t="d">
+        <x:v>2016-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27128</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2210979.970547</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13692259.212121</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21912.586144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c s="5" t="d">
+        <x:v>2016-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27256</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2139433.1415835</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14843907.583333</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19504.438634</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c s="5" t="d">
+        <x:v>2016-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27396</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2049010.5301138</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14763885.293233</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20309.283192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c s="5" t="d">
+        <x:v>2016-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27530</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2005733.1593171</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15335843.454545</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20900.324367</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c s="5" t="d">
+        <x:v>2016-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27702</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2035326.039239</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15536861.984848</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21802.121762</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c s="5" t="d">
+        <x:v>2016-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27786</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2067605.381487</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15443491.402985</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22725.108945</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c s="5" t="d">
+        <x:v>2016-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27945</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2093694.2673823</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16232317.234848</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22754.01174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c s="5" t="d">
+        <x:v>2016-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28079</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2091028.040849</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16014662.454545</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22563.134803</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c s="5" t="d">
+        <x:v>2016-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28218</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2223892.183677</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15483855.784615</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23700.873206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c s="5" t="d">
+        <x:v>2016-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28316</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2296247.9088854</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15414941.274809</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24004.751225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c s="5" t="d">
+        <x:v>2016-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28423</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2241931.0318052</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15062858.969465</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23205.371741</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c s="5" t="d">
+        <x:v>2016-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28524</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2293359.2796942</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15386930.42748</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25484.507948</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c s="5" t="d">
+        <x:v>2017-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28626</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2262618.582687</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14503374.30303</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24259.190478</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c s="5" t="d">
+        <x:v>2017-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28706</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2147506.3999163</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14742719.030303</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23843.063863</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c s="5" t="d">
+        <x:v>2017-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28926</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2097618.2441747</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14536415.676691</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24431.385903</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c s="5" t="d">
+        <x:v>2017-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29104</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2051309.0187946</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13422237.666666</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25362.220833</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c s="5" t="d">
+        <x:v>2017-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29304</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2099629.323437</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13418506.925925</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26189.743792</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c s="5" t="d">
+        <x:v>2017-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29366</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2086303.640162</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13924222.485294</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27160.809287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c s="5" t="d">
+        <x:v>2017-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29585</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2119976.2539124</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13927786.257352</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25967.40311</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c s="5" t="d">
+        <x:v>2017-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29797</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2064178.6519783</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13124522.260563</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26999.176494</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c s="5" t="d">
+        <x:v>2017-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29932</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2134329.4465455</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13937262.441379</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28903.088467</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c s="5" t="d">
+        <x:v>2017-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30143</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2153066.102445</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13845039.710344</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28122.419275</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c s="5" t="d">
+        <x:v>2017-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30359</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2176059.5429032</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13993710.414966</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28653.758972</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c s="5" t="d">
+        <x:v>2017-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30547</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2248716.2162241</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13868394.324324</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30399.866667</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c s="5" t="d">
+        <x:v>2018-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30768</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2192561.5933112</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14574136.52027</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29402.379929</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c s="5" t="d">
+        <x:v>2018-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30963</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2143844.0922068</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14310308.013157</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29301.11768</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c s="5" t="d">
+        <x:v>2018-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31205</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2114499.4862361</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15007494.538961</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30284.698567</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c s="5" t="d">
+        <x:v>2018-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31440</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2096954.6573791</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14163407.696202</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29159.658158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c s="5" t="d">
+        <x:v>2018-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31595</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2061638.3040354</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13706012.92405</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32082.712179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c s="5" t="d">
+        <x:v>2018-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31714</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2064918.9708646</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13935734.272151</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33353.379328</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c s="5" t="d">
+        <x:v>2018-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31820</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2076660.5687617</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12849167.99371</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31438.683298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c s="5" t="d">
+        <x:v>2018-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32036</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2090168.8426457</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21629525.670807</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33104.533781</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c s="5" t="d">
+        <x:v>2018-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32079</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2245799.6926649</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22763405.360759</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34734.599953</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c s="5" t="d">
+        <x:v>2018-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32377</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2265034.7907774</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22114626.886792</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34890.58786</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c s="5" t="d">
+        <x:v>2018-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32590</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2257591.0273396</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22100352.503144</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35053.57649</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c s="5" t="d">
+        <x:v>2018-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32827</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2261676.9162275</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21506023.367088</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38011.572104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c s="5" t="d">
+        <x:v>2019-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33073</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2249936.6954313</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21015159.25</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36606.848336</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c s="5" t="d">
+        <x:v>2019-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33281</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2122956.6240497</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17409658.533333</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36432.900762</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c s="5" t="d">
+        <x:v>2019-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33580</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2086056.1896069</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17231376.751515</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37631.078264</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c s="5" t="d">
+        <x:v>2019-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33757</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2052880.8352638</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17047681.491018</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36508.189252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c s="5" t="d">
+        <x:v>2019-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33990</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2027407.0089143</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17256966.107784</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38882.329075</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c s="5" t="d">
+        <x:v>2019-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34132</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2065468.6713348</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15345176.385542</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40096.828488</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c s="5" t="d">
+        <x:v>2019-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34432</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2041706.5549779</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13740302.047904</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38456.560293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c s="5" t="d">
+        <x:v>2019-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34660</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2073767.747663</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13125561.20958</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40360.815711</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c s="5" t="d">
+        <x:v>2019-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34898</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2155545.7780102</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13393331.401234</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39201.383153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c s="5" t="d">
+        <x:v>2019-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34955</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2254682.2959233</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13202102.025</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42138.045202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c s="5" t="d">
+        <x:v>2019-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35091</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2281578.5850788</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13719427.237804</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42589.908119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c s="5" t="d">
+        <x:v>2019-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35242</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2349558.9922251</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31802295.363095</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43676.424227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c s="5" t="d">
+        <x:v>2020-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35288</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2284613.440518</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34512776.60606</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45195.729108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c s="5" t="d">
+        <x:v>2020-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35382</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2245320.7885648</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34759504.964285</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44667.503127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c s="5" t="d">
+        <x:v>2020-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35503</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2260249.5882319</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34628795.391812</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46671.240235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c s="5" t="d">
+        <x:v>2020-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35402</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2401812.8723518</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35631708.470588</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54046.53286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c s="5" t="d">
+        <x:v>2020-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35278</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2581723.1222008</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34182700.823529</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56416.941802</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c s="5" t="d">
+        <x:v>2020-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35217</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2778029.338558</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33849326.582352</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56771.618576</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c s="5" t="d">
+        <x:v>2020-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35319</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2914888.0620346</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33095598.120689</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>64140.086897</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c s="5" t="d">
+        <x:v>2020-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35415</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3162720.5389241</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32475186.785714</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110233.307681</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c s="5" t="d">
+        <x:v>2020-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35644</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3561900.3409269</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32876469.63492</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108802.870458</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c s="5" t="d">
+        <x:v>2020-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35889</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3779986.7978489</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34327275.554973</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>102844.298596</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c s="5" t="d">
+        <x:v>2020-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36190</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3808932.3323017</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35079041.959596</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>93406.273752</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c s="5" t="d">
+        <x:v>2020-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36353</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3879466.1357797</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36647441.699507</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>127650.801929</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c s="5" t="d">
         <x:v>2021-01-01T00:00:00.000</x:v>
       </x:c>
       <x:c s="11" t="n">
@@ -252,7 +2172,7 @@
         <x:v>119506.165119</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
+    <x:row r="101">
       <x:c s="5" t="d">
         <x:v>2021-02-01T00:00:00.000</x:v>
       </x:c>
@@ -272,7 +2192,7 @@
         <x:v>112467.973262</x:v>
       </x:c>
     </x:row>
-    <x:row r="6">
+    <x:row r="102">
       <x:c s="5" t="d">
         <x:v>2021-03-01T00:00:00.000</x:v>
       </x:c>
@@ -292,7 +2212,7 @@
         <x:v>111561.570656</x:v>
       </x:c>
     </x:row>
-    <x:row r="7">
+    <x:row r="103">
       <x:c s="5" t="d">
         <x:v>2021-04-01T00:00:00.000</x:v>
       </x:c>
@@ -312,7 +2232,7 @@
         <x:v>112219.864956</x:v>
       </x:c>
     </x:row>
-    <x:row r="8">
+    <x:row r="104">
       <x:c s="5" t="d">
         <x:v>2021-05-01T00:00:00.000</x:v>
       </x:c>
@@ -332,7 +2252,7 @@
         <x:v>147266.079883</x:v>
       </x:c>
     </x:row>
-    <x:row r="9">
+    <x:row r="105">
       <x:c s="5" t="d">
         <x:v>2021-06-01T00:00:00.000</x:v>
       </x:c>
@@ -352,7 +2272,7 @@
         <x:v>141127.005394</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
+    <x:row r="106">
       <x:c s="5" t="d">
         <x:v>2021-07-01T00:00:00.000</x:v>
       </x:c>
@@ -372,7 +2292,7 @@
         <x:v>143087.851257</x:v>
       </x:c>
     </x:row>
-    <x:row r="11">
+    <x:row r="107">
       <x:c s="5" t="d">
         <x:v>2021-08-01T00:00:00.000</x:v>
       </x:c>
@@ -392,7 +2312,7 @@
         <x:v>137333.104593</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
+    <x:row r="108">
       <x:c s="5" t="d">
         <x:v>2021-09-01T00:00:00.000</x:v>
       </x:c>
@@ -412,7 +2332,7 @@
         <x:v>138036.430968</x:v>
       </x:c>
     </x:row>
-    <x:row r="13">
+    <x:row r="109">
       <x:c s="5" t="d">
         <x:v>2021-10-01T00:00:00.000</x:v>
       </x:c>
@@ -432,7 +2352,7 @@
         <x:v>133805.532761</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
+    <x:row r="110">
       <x:c s="5" t="d">
         <x:v>2021-11-01T00:00:00.000</x:v>
       </x:c>
@@ -452,7 +2372,7 @@
         <x:v>130975.620859</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
+    <x:row r="111">
       <x:c s="5" t="d">
         <x:v>2021-12-01T00:00:00.000</x:v>
       </x:c>
@@ -472,7 +2392,7 @@
         <x:v>131782.66714</x:v>
       </x:c>
     </x:row>
-    <x:row r="16">
+    <x:row r="112">
       <x:c s="5" t="d">
         <x:v>2022-01-01T00:00:00.000</x:v>
       </x:c>
@@ -492,7 +2412,7 @@
         <x:v>120819.073247</x:v>
       </x:c>
     </x:row>
-    <x:row r="17">
+    <x:row r="113">
       <x:c s="5" t="d">
         <x:v>2022-02-01T00:00:00.000</x:v>
       </x:c>
@@ -512,7 +2432,7 @@
         <x:v>114418.135963</x:v>
       </x:c>
     </x:row>
-    <x:row r="18">
+    <x:row r="114">
       <x:c s="5" t="d">
         <x:v>2022-03-01T00:00:00.000</x:v>
       </x:c>
@@ -532,7 +2452,7 @@
         <x:v>110955.765838</x:v>
       </x:c>
     </x:row>
-    <x:row r="19">
+    <x:row r="115">
       <x:c s="5" t="d">
         <x:v>2022-04-01T00:00:00.000</x:v>
       </x:c>
@@ -552,7 +2472,7 @@
         <x:v>107768.179764</x:v>
       </x:c>
     </x:row>
-    <x:row r="20">
+    <x:row r="116">
       <x:c s="5" t="d">
         <x:v>2022-05-01T00:00:00.000</x:v>
       </x:c>
@@ -572,7 +2492,7 @@
         <x:v>106201.833213</x:v>
       </x:c>
     </x:row>
-    <x:row r="21">
+    <x:row r="117">
       <x:c s="5" t="d">
         <x:v>2022-06-01T00:00:00.000</x:v>
       </x:c>
@@ -592,7 +2512,7 @@
         <x:v>104122.372792</x:v>
       </x:c>
     </x:row>
-    <x:row r="22">
+    <x:row r="118">
       <x:c s="5" t="d">
         <x:v>2022-07-01T00:00:00.000</x:v>
       </x:c>
@@ -612,7 +2532,7 @@
         <x:v>100610.140222</x:v>
       </x:c>
     </x:row>
-    <x:row r="23">
+    <x:row r="119">
       <x:c s="5" t="d">
         <x:v>2022-08-01T00:00:00.000</x:v>
       </x:c>
@@ -632,7 +2552,7 @@
         <x:v>99877.290079</x:v>
       </x:c>
     </x:row>
-    <x:row r="24">
+    <x:row r="120">
       <x:c s="5" t="d">
         <x:v>2022-09-01T00:00:00.000</x:v>
       </x:c>
@@ -652,7 +2572,7 @@
         <x:v>100464.596627</x:v>
       </x:c>
     </x:row>
-    <x:row r="25">
+    <x:row r="121">
       <x:c s="5" t="d">
         <x:v>2022-10-01T00:00:00.000</x:v>
       </x:c>
@@ -672,7 +2592,7 @@
         <x:v>96417.117704</x:v>
       </x:c>
     </x:row>
-    <x:row r="26">
+    <x:row r="122">
       <x:c s="5" t="d">
         <x:v>2022-11-01T00:00:00.000</x:v>
       </x:c>
@@ -692,7 +2612,7 @@
         <x:v>93420.054706</x:v>
       </x:c>
     </x:row>
-    <x:row r="27">
+    <x:row r="123">
       <x:c s="5" t="d">
         <x:v>2022-12-01T00:00:00.000</x:v>
       </x:c>
@@ -712,7 +2632,7 @@
         <x:v>95410.856653</x:v>
       </x:c>
     </x:row>
-    <x:row r="28">
+    <x:row r="124">
       <x:c s="5" t="d">
         <x:v>2023-01-01T00:00:00.000</x:v>
       </x:c>
@@ -732,7 +2652,7 @@
         <x:v>92864.270584</x:v>
       </x:c>
     </x:row>
-    <x:row r="29">
+    <x:row r="125">
       <x:c s="5" t="d">
         <x:v>2023-02-01T00:00:00.000</x:v>
       </x:c>
@@ -752,7 +2672,7 @@
         <x:v>90225.825685</x:v>
       </x:c>
     </x:row>
-    <x:row r="30">
+    <x:row r="126">
       <x:c s="5" t="d">
         <x:v>2023-03-01T00:00:00.000</x:v>
       </x:c>
@@ -772,7 +2692,7 @@
         <x:v>90439.444475</x:v>
       </x:c>
     </x:row>
-    <x:row r="31">
+    <x:row r="127">
       <x:c s="5" t="d">
         <x:v>2023-04-01T00:00:00.000</x:v>
       </x:c>
@@ -792,7 +2712,7 @@
         <x:v>89162.006176</x:v>
       </x:c>
     </x:row>
-    <x:row r="32">
+    <x:row r="128">
       <x:c s="5" t="d">
         <x:v>2023-05-01T00:00:00.000</x:v>
       </x:c>
@@ -812,7 +2732,7 @@
         <x:v>85775.187506</x:v>
       </x:c>
     </x:row>
-    <x:row r="33">
+    <x:row r="129">
       <x:c s="5" t="d">
         <x:v>2023-06-01T00:00:00.000</x:v>
       </x:c>
@@ -832,7 +2752,7 @@
         <x:v>87477.55225</x:v>
       </x:c>
     </x:row>
-    <x:row r="34">
+    <x:row r="130">
       <x:c s="5" t="d">
         <x:v>2023-07-01T00:00:00.000</x:v>
       </x:c>
@@ -852,7 +2772,7 @@
         <x:v>82647.701684</x:v>
       </x:c>
     </x:row>
-    <x:row r="35">
+    <x:row r="131">
       <x:c s="5" t="d">
         <x:v>2023-08-01T00:00:00.000</x:v>
       </x:c>
@@ -872,7 +2792,7 @@
         <x:v>83897.090181</x:v>
       </x:c>
     </x:row>
-    <x:row r="36">
+    <x:row r="132">
       <x:c s="5" t="d">
         <x:v>2023-09-01T00:00:00.000</x:v>
       </x:c>
@@ -892,7 +2812,7 @@
         <x:v>87085.426537</x:v>
       </x:c>
     </x:row>
-    <x:row r="37">
+    <x:row r="133">
       <x:c s="5" t="d">
         <x:v>2023-10-01T00:00:00.000</x:v>
       </x:c>
@@ -912,7 +2832,7 @@
         <x:v>83583.421985</x:v>
       </x:c>
     </x:row>
-    <x:row r="38">
+    <x:row r="134">
       <x:c s="5" t="d">
         <x:v>2023-11-01T00:00:00.000</x:v>
       </x:c>
@@ -932,7 +2852,7 @@
         <x:v>83551.650639</x:v>
       </x:c>
     </x:row>
-    <x:row r="39">
+    <x:row r="135">
       <x:c s="5" t="d">
         <x:v>2023-12-01T00:00:00.000</x:v>
       </x:c>
@@ -952,7 +2872,7 @@
         <x:v>86615.254639</x:v>
       </x:c>
     </x:row>
-    <x:row r="40">
+    <x:row r="136">
       <x:c s="5" t="d">
         <x:v>2024-01-01T00:00:00.000</x:v>
       </x:c>
@@ -972,7 +2892,7 @@
         <x:v>84682.646854</x:v>
       </x:c>
     </x:row>
-    <x:row r="41">
+    <x:row r="137">
       <x:c s="5" t="d">
         <x:v>2024-02-01T00:00:00.000</x:v>
       </x:c>
@@ -992,7 +2912,7 @@
         <x:v>83989.807305</x:v>
       </x:c>
     </x:row>
-    <x:row r="42">
+    <x:row r="138">
       <x:c s="5" t="d">
         <x:v>2024-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1012,7 +2932,7 @@
         <x:v>85368.534</x:v>
       </x:c>
     </x:row>
-    <x:row r="43">
+    <x:row r="139">
       <x:c s="5" t="d">
         <x:v>2024-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1032,7 +2952,7 @@
         <x:v>84147.582933</x:v>
       </x:c>
     </x:row>
-    <x:row r="44">
+    <x:row r="140">
       <x:c s="5" t="d">
         <x:v>2024-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1052,7 +2972,7 @@
         <x:v>85464.386829</x:v>
       </x:c>
     </x:row>
-    <x:row r="45">
+    <x:row r="141">
       <x:c s="5" t="d">
         <x:v>2024-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1072,7 +2992,7 @@
         <x:v>86617.004826</x:v>
       </x:c>
     </x:row>
-    <x:row r="46">
+    <x:row r="142">
       <x:c s="5" t="d">
         <x:v>2024-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1092,7 +3012,7 @@
         <x:v>83986.266982</x:v>
       </x:c>
     </x:row>
-    <x:row r="47">
+    <x:row r="143">
       <x:c s="5" t="d">
         <x:v>2024-08-01T00:00:00.000</x:v>
       </x:c>
